--- a/Additional_files/Additional_file_5.xlsx
+++ b/Additional_files/Additional_file_5.xlsx
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="227" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="227" zoomScaleNormal="227" zoomScalePageLayoutView="227" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
